--- a/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\DocSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -48,9 +48,8 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,31 +145,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +244,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,9 +331,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,155 +524,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J24"/>
+  <dimension ref="B7:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="20.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="20.6328125" style="13" customWidth="1"/>
+    <col min="7" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="20.6328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="I4" s="10" t="s">
+      <c r="C7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="7"/>
       <c r="D10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9" t="s">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+      <c r="D21" s="12"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -635,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onatsky\BjjApp\TRNMNT\wwwroot\FileSamples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>А</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
     <t>проигравший в "А"</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -118,19 +118,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -145,39 +132,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,23 +254,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,26 +289,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,158 +465,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:J27"/>
+  <dimension ref="B8:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="20.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="20.6328125" style="13" customWidth="1"/>
-    <col min="7" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="20.6328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="I7" s="1" t="s">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C12" s="7"/>
-      <c r="D12" s="4"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="7"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="7"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C27" s="5"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I24:J24"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -689,7 +600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
+++ b/TRNMNT/wwwroot/FileSamples/brackets-3.xlsx
@@ -47,7 +47,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -137,29 +138,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,126 +466,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:H27"/>
+  <dimension ref="B9:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="20.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="F21" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
